--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3242.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3242.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.665036240176191</v>
+        <v>1.030979633331299</v>
       </c>
       <c r="B1">
-        <v>2.487602679335484</v>
+        <v>0.9703243970870972</v>
       </c>
       <c r="C1">
-        <v>3.037932683409589</v>
+        <v>0.754185676574707</v>
       </c>
       <c r="D1">
-        <v>3.333315419506766</v>
+        <v>0.733465850353241</v>
       </c>
       <c r="E1">
-        <v>2.307276288069227</v>
+        <v>0.7948825359344482</v>
       </c>
     </row>
   </sheetData>
